--- a/Financials/Yearly/KEP_YR_FIN.xlsx
+++ b/Financials/Yearly/KEP_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53BD471-86A9-445D-8DC0-33A0B1C64599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KEP" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>KEP</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>53833400</v>
+        <v>53352300</v>
       </c>
       <c r="E8" s="3">
-        <v>54171300</v>
+        <v>52637100</v>
       </c>
       <c r="F8" s="3">
-        <v>53061900</v>
+        <v>52967500</v>
       </c>
       <c r="G8" s="3">
-        <v>51727400</v>
+        <v>51882800</v>
       </c>
       <c r="H8" s="3">
-        <v>48634000</v>
+        <v>50577900</v>
       </c>
       <c r="I8" s="3">
-        <v>44479400</v>
+        <v>47553300</v>
       </c>
       <c r="J8" s="3">
+        <v>43490900</v>
+      </c>
+      <c r="K8" s="3">
         <v>39110100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>46965000</v>
+        <v>51298500</v>
       </c>
       <c r="E9" s="3">
-        <v>41080800</v>
+        <v>45921400</v>
       </c>
       <c r="F9" s="3">
-        <v>40997600</v>
+        <v>40167900</v>
       </c>
       <c r="G9" s="3">
-        <v>44844300</v>
+        <v>40086600</v>
       </c>
       <c r="H9" s="3">
-        <v>45579200</v>
+        <v>43847800</v>
       </c>
       <c r="I9" s="3">
-        <v>43646100</v>
+        <v>44566300</v>
       </c>
       <c r="J9" s="3">
+        <v>42676200</v>
+      </c>
+      <c r="K9" s="3">
         <v>38482000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6868300</v>
+        <v>2053800</v>
       </c>
       <c r="E10" s="3">
-        <v>13090500</v>
+        <v>6715700</v>
       </c>
       <c r="F10" s="3">
-        <v>12064300</v>
+        <v>12799600</v>
       </c>
       <c r="G10" s="3">
-        <v>6883100</v>
+        <v>11796200</v>
       </c>
       <c r="H10" s="3">
-        <v>3054800</v>
+        <v>6730100</v>
       </c>
       <c r="I10" s="3">
-        <v>833300</v>
+        <v>2987000</v>
       </c>
       <c r="J10" s="3">
+        <v>814800</v>
+      </c>
+      <c r="K10" s="3">
         <v>628200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>240500</v>
+        <v>189600</v>
       </c>
       <c r="E12" s="3">
-        <v>169300</v>
+        <v>235200</v>
       </c>
       <c r="F12" s="3">
-        <v>160600</v>
+        <v>165500</v>
       </c>
       <c r="G12" s="3">
-        <v>138800</v>
+        <v>157100</v>
       </c>
       <c r="H12" s="3">
-        <v>149500</v>
+        <v>135700</v>
       </c>
       <c r="I12" s="3">
-        <v>128000</v>
+        <v>146200</v>
       </c>
       <c r="J12" s="3">
+        <v>125200</v>
+      </c>
+      <c r="K12" s="3">
         <v>121400</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>645500</v>
       </c>
       <c r="E14" s="3">
-        <v>83300</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-45300</v>
+        <v>81500</v>
       </c>
       <c r="G14" s="3">
-        <v>-125300</v>
+        <v>-44300</v>
       </c>
       <c r="H14" s="3">
-        <v>-182600</v>
+        <v>-122500</v>
       </c>
       <c r="I14" s="3">
-        <v>1561400</v>
+        <v>-178600</v>
       </c>
       <c r="J14" s="3">
+        <v>1526700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-38000</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>217700</v>
+        <v>242200</v>
       </c>
       <c r="E15" s="3">
-        <v>190100</v>
+        <v>212900</v>
       </c>
       <c r="F15" s="3">
-        <v>135000</v>
+        <v>185900</v>
       </c>
       <c r="G15" s="3">
-        <v>104500</v>
+        <v>132000</v>
       </c>
       <c r="H15" s="3">
-        <v>112600</v>
+        <v>102200</v>
       </c>
       <c r="I15" s="3">
-        <v>97200</v>
+        <v>110100</v>
       </c>
       <c r="J15" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K15" s="3">
         <v>91800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>49370800</v>
+        <v>54186600</v>
       </c>
       <c r="E17" s="3">
-        <v>43459200</v>
+        <v>48273700</v>
       </c>
       <c r="F17" s="3">
-        <v>42810600</v>
+        <v>42493400</v>
       </c>
       <c r="G17" s="3">
-        <v>46257900</v>
+        <v>41859300</v>
       </c>
       <c r="H17" s="3">
-        <v>46917600</v>
+        <v>45230000</v>
       </c>
       <c r="I17" s="3">
-        <v>46593700</v>
+        <v>45875000</v>
       </c>
       <c r="J17" s="3">
+        <v>45558300</v>
+      </c>
+      <c r="K17" s="3">
         <v>40004500</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>4462600</v>
+        <v>-834300</v>
       </c>
       <c r="E18" s="3">
-        <v>10712100</v>
+        <v>4363400</v>
       </c>
       <c r="F18" s="3">
-        <v>10251400</v>
+        <v>10474100</v>
       </c>
       <c r="G18" s="3">
-        <v>5469500</v>
+        <v>10023500</v>
       </c>
       <c r="H18" s="3">
-        <v>1716400</v>
+        <v>5347900</v>
       </c>
       <c r="I18" s="3">
-        <v>-2114300</v>
+        <v>1678300</v>
       </c>
       <c r="J18" s="3">
+        <v>-2067300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-894400</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>400800</v>
+        <v>717800</v>
       </c>
       <c r="E20" s="3">
-        <v>327600</v>
+        <v>391900</v>
       </c>
       <c r="F20" s="3">
-        <v>8353000</v>
+        <v>320300</v>
       </c>
       <c r="G20" s="3">
-        <v>453400</v>
+        <v>8167400</v>
       </c>
       <c r="H20" s="3">
-        <v>70400</v>
+        <v>443300</v>
       </c>
       <c r="I20" s="3">
-        <v>3328700</v>
+        <v>68900</v>
       </c>
       <c r="J20" s="3">
+        <v>3254700</v>
+      </c>
+      <c r="K20" s="3">
         <v>2846800</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>13562000</v>
+        <v>8705300</v>
       </c>
       <c r="E21" s="3">
-        <v>19015000</v>
+        <v>13356200</v>
       </c>
       <c r="F21" s="3">
-        <v>26028200</v>
+        <v>18680000</v>
       </c>
       <c r="G21" s="3">
-        <v>12930200</v>
+        <v>25531300</v>
       </c>
       <c r="H21" s="3">
-        <v>8366100</v>
+        <v>12719900</v>
       </c>
       <c r="I21" s="3">
-        <v>7441400</v>
+        <v>8252500</v>
       </c>
       <c r="J21" s="3">
+        <v>7344500</v>
+      </c>
+      <c r="K21" s="3">
         <v>8073200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1610600</v>
+        <v>1644200</v>
       </c>
       <c r="E22" s="3">
-        <v>1577600</v>
+        <v>1574800</v>
       </c>
       <c r="F22" s="3">
-        <v>1814100</v>
+        <v>1542500</v>
       </c>
       <c r="G22" s="3">
-        <v>2116500</v>
+        <v>1773800</v>
       </c>
       <c r="H22" s="3">
-        <v>2143700</v>
+        <v>2069400</v>
       </c>
       <c r="I22" s="3">
-        <v>4871400</v>
+        <v>2096100</v>
       </c>
       <c r="J22" s="3">
+        <v>4763100</v>
+      </c>
+      <c r="K22" s="3">
         <v>4178200</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3252800</v>
+        <v>-1760700</v>
       </c>
       <c r="E23" s="3">
-        <v>9462100</v>
+        <v>3180500</v>
       </c>
       <c r="F23" s="3">
-        <v>16790200</v>
+        <v>9251900</v>
       </c>
       <c r="G23" s="3">
-        <v>3806400</v>
+        <v>16417100</v>
       </c>
       <c r="H23" s="3">
-        <v>-356800</v>
+        <v>3721800</v>
       </c>
       <c r="I23" s="3">
-        <v>-3657000</v>
+        <v>-348900</v>
       </c>
       <c r="J23" s="3">
+        <v>-3575700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2225800</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1955500</v>
+        <v>-727200</v>
       </c>
       <c r="E24" s="3">
-        <v>3028600</v>
+        <v>1912100</v>
       </c>
       <c r="F24" s="3">
-        <v>4715500</v>
+        <v>2961300</v>
       </c>
       <c r="G24" s="3">
-        <v>1287300</v>
+        <v>4610700</v>
       </c>
       <c r="H24" s="3">
-        <v>-513700</v>
+        <v>1258700</v>
       </c>
       <c r="I24" s="3">
-        <v>-886800</v>
+        <v>-502300</v>
       </c>
       <c r="J24" s="3">
+        <v>-867100</v>
+      </c>
+      <c r="K24" s="3">
         <v>737900</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1297300</v>
+        <v>-1033600</v>
       </c>
       <c r="E26" s="3">
-        <v>6433500</v>
+        <v>1268400</v>
       </c>
       <c r="F26" s="3">
-        <v>12074700</v>
+        <v>6290500</v>
       </c>
       <c r="G26" s="3">
-        <v>2519100</v>
+        <v>11806400</v>
       </c>
       <c r="H26" s="3">
-        <v>156900</v>
+        <v>2463100</v>
       </c>
       <c r="I26" s="3">
-        <v>-2770200</v>
+        <v>153400</v>
       </c>
       <c r="J26" s="3">
+        <v>-2708600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2963700</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1168800</v>
+        <v>-1156800</v>
       </c>
       <c r="E27" s="3">
-        <v>6343700</v>
+        <v>1142900</v>
       </c>
       <c r="F27" s="3">
-        <v>11960200</v>
+        <v>6202800</v>
       </c>
       <c r="G27" s="3">
-        <v>2418200</v>
+        <v>11694400</v>
       </c>
       <c r="H27" s="3">
-        <v>54000</v>
+        <v>2364400</v>
       </c>
       <c r="I27" s="3">
-        <v>-2850000</v>
+        <v>52800</v>
       </c>
       <c r="J27" s="3">
+        <v>-2786600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3033400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-400800</v>
+        <v>-717800</v>
       </c>
       <c r="E32" s="3">
-        <v>-327600</v>
+        <v>-391900</v>
       </c>
       <c r="F32" s="3">
-        <v>-8353000</v>
+        <v>-320300</v>
       </c>
       <c r="G32" s="3">
-        <v>-453400</v>
+        <v>-8167400</v>
       </c>
       <c r="H32" s="3">
-        <v>-70400</v>
+        <v>-443300</v>
       </c>
       <c r="I32" s="3">
-        <v>-3328700</v>
+        <v>-68900</v>
       </c>
       <c r="J32" s="3">
+        <v>-3254700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2846800</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1168800</v>
+        <v>-1156800</v>
       </c>
       <c r="E33" s="3">
-        <v>6343700</v>
+        <v>1142900</v>
       </c>
       <c r="F33" s="3">
-        <v>11960200</v>
+        <v>6202800</v>
       </c>
       <c r="G33" s="3">
-        <v>2418200</v>
+        <v>11694400</v>
       </c>
       <c r="H33" s="3">
-        <v>54000</v>
+        <v>2364400</v>
       </c>
       <c r="I33" s="3">
-        <v>-2850000</v>
+        <v>52800</v>
       </c>
       <c r="J33" s="3">
+        <v>-2786600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3033400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1168800</v>
+        <v>-1156800</v>
       </c>
       <c r="E35" s="3">
-        <v>6343700</v>
+        <v>1142900</v>
       </c>
       <c r="F35" s="3">
-        <v>11960200</v>
+        <v>6202800</v>
       </c>
       <c r="G35" s="3">
-        <v>2418200</v>
+        <v>11694400</v>
       </c>
       <c r="H35" s="3">
-        <v>54000</v>
+        <v>2364400</v>
       </c>
       <c r="I35" s="3">
-        <v>-2850000</v>
+        <v>52800</v>
       </c>
       <c r="J35" s="3">
+        <v>-2786600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3033400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1375500</v>
+        <v>1002500</v>
       </c>
       <c r="E41" s="3">
-        <v>1661800</v>
+        <v>1344900</v>
       </c>
       <c r="F41" s="3">
-        <v>1515700</v>
+        <v>1624900</v>
       </c>
       <c r="G41" s="3">
-        <v>1345000</v>
+        <v>1482000</v>
       </c>
       <c r="H41" s="3">
-        <v>1993500</v>
+        <v>1315100</v>
       </c>
       <c r="I41" s="3">
-        <v>2837300</v>
+        <v>1949200</v>
       </c>
       <c r="J41" s="3">
+        <v>2774200</v>
+      </c>
+      <c r="K41" s="3">
         <v>645200</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2258400</v>
+        <v>2106900</v>
       </c>
       <c r="E42" s="3">
-        <v>3489200</v>
+        <v>2208200</v>
       </c>
       <c r="F42" s="3">
-        <v>6691100</v>
+        <v>3411600</v>
       </c>
       <c r="G42" s="3">
-        <v>362000</v>
+        <v>6542500</v>
       </c>
       <c r="H42" s="3">
-        <v>361500</v>
+        <v>354000</v>
       </c>
       <c r="I42" s="3">
-        <v>1693900</v>
+        <v>353400</v>
       </c>
       <c r="J42" s="3">
+        <v>1656300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1297400</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7445600</v>
+        <v>6893100</v>
       </c>
       <c r="E43" s="3">
-        <v>7027200</v>
+        <v>7280100</v>
       </c>
       <c r="F43" s="3">
-        <v>6734400</v>
+        <v>6871100</v>
       </c>
       <c r="G43" s="3">
-        <v>6995200</v>
+        <v>6584700</v>
       </c>
       <c r="H43" s="3">
-        <v>6875900</v>
+        <v>6839700</v>
       </c>
       <c r="I43" s="3">
-        <v>6894500</v>
+        <v>6723100</v>
       </c>
       <c r="J43" s="3">
+        <v>6741200</v>
+      </c>
+      <c r="K43" s="3">
         <v>6579000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>5401900</v>
+        <v>6325700</v>
       </c>
       <c r="E44" s="3">
-        <v>4931500</v>
+        <v>5281800</v>
       </c>
       <c r="F44" s="3">
-        <v>4451800</v>
+        <v>4821900</v>
       </c>
       <c r="G44" s="3">
-        <v>4083700</v>
+        <v>4352800</v>
       </c>
       <c r="H44" s="3">
-        <v>3851600</v>
+        <v>3993000</v>
       </c>
       <c r="I44" s="3">
-        <v>3096600</v>
+        <v>3766000</v>
       </c>
       <c r="J44" s="3">
+        <v>3027800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3466600</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>746100</v>
+        <v>1047500</v>
       </c>
       <c r="E45" s="3">
-        <v>627900</v>
+        <v>729500</v>
       </c>
       <c r="F45" s="3">
-        <v>429800</v>
+        <v>614000</v>
       </c>
       <c r="G45" s="3">
-        <v>2352000</v>
+        <v>420300</v>
       </c>
       <c r="H45" s="3">
-        <v>659700</v>
+        <v>2299700</v>
       </c>
       <c r="I45" s="3">
-        <v>978500</v>
+        <v>645000</v>
       </c>
       <c r="J45" s="3">
+        <v>956800</v>
+      </c>
+      <c r="K45" s="3">
         <v>402700</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>17227500</v>
+        <v>17375700</v>
       </c>
       <c r="E46" s="3">
-        <v>17737700</v>
+        <v>16844700</v>
       </c>
       <c r="F46" s="3">
-        <v>19822800</v>
+        <v>17343500</v>
       </c>
       <c r="G46" s="3">
-        <v>15137900</v>
+        <v>19382300</v>
       </c>
       <c r="H46" s="3">
-        <v>13742200</v>
+        <v>14801500</v>
       </c>
       <c r="I46" s="3">
-        <v>12540100</v>
+        <v>13436800</v>
       </c>
       <c r="J46" s="3">
+        <v>12261500</v>
+      </c>
+      <c r="K46" s="3">
         <v>12390800</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>7710500</v>
+        <v>7884500</v>
       </c>
       <c r="E47" s="3">
-        <v>9064300</v>
+        <v>7539100</v>
       </c>
       <c r="F47" s="3">
-        <v>8988800</v>
+        <v>8862900</v>
       </c>
       <c r="G47" s="3">
-        <v>8021100</v>
+        <v>8789000</v>
       </c>
       <c r="H47" s="3">
-        <v>7624600</v>
+        <v>7842900</v>
       </c>
       <c r="I47" s="3">
-        <v>9725200</v>
+        <v>7455100</v>
       </c>
       <c r="J47" s="3">
+        <v>9509100</v>
+      </c>
+      <c r="K47" s="3">
         <v>7172000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>136050000</v>
+        <v>134554000</v>
       </c>
       <c r="E48" s="3">
-        <v>131487000</v>
+        <v>133027000</v>
       </c>
       <c r="F48" s="3">
-        <v>127468000</v>
+        <v>128565000</v>
       </c>
       <c r="G48" s="3">
-        <v>122517000</v>
+        <v>124636000</v>
       </c>
       <c r="H48" s="3">
-        <v>117158000</v>
+        <v>119794000</v>
       </c>
       <c r="I48" s="3">
-        <v>221340000</v>
+        <v>114555000</v>
       </c>
       <c r="J48" s="3">
+        <v>216421000</v>
+      </c>
+      <c r="K48" s="3">
         <v>101612000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1070700</v>
+        <v>1081100</v>
       </c>
       <c r="E49" s="3">
-        <v>885100</v>
+        <v>1046900</v>
       </c>
       <c r="F49" s="3">
-        <v>772600</v>
+        <v>865400</v>
       </c>
       <c r="G49" s="3">
-        <v>741300</v>
+        <v>755400</v>
       </c>
       <c r="H49" s="3">
-        <v>731900</v>
+        <v>724800</v>
       </c>
       <c r="I49" s="3">
-        <v>1608800</v>
+        <v>715700</v>
       </c>
       <c r="J49" s="3">
+        <v>1573100</v>
+      </c>
+      <c r="K49" s="3">
         <v>784400</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1550900</v>
+        <v>2123500</v>
       </c>
       <c r="E52" s="3">
-        <v>879200</v>
+        <v>1516400</v>
       </c>
       <c r="F52" s="3">
-        <v>679400</v>
+        <v>859700</v>
       </c>
       <c r="G52" s="3">
-        <v>920400</v>
+        <v>664300</v>
       </c>
       <c r="H52" s="3">
-        <v>717600</v>
+        <v>900000</v>
       </c>
       <c r="I52" s="3">
-        <v>730700</v>
+        <v>701700</v>
       </c>
       <c r="J52" s="3">
+        <v>714400</v>
+      </c>
+      <c r="K52" s="3">
         <v>862000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>163610000</v>
+        <v>163019000</v>
       </c>
       <c r="E54" s="3">
-        <v>160053000</v>
+        <v>159974000</v>
       </c>
       <c r="F54" s="3">
-        <v>157732000</v>
+        <v>156497000</v>
       </c>
       <c r="G54" s="3">
-        <v>147338000</v>
+        <v>154227000</v>
       </c>
       <c r="H54" s="3">
-        <v>139975000</v>
+        <v>144063000</v>
       </c>
       <c r="I54" s="3">
-        <v>131538000</v>
+        <v>136864000</v>
       </c>
       <c r="J54" s="3">
+        <v>128615000</v>
+      </c>
+      <c r="K54" s="3">
         <v>122821000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>2643400</v>
+        <v>3002400</v>
       </c>
       <c r="E57" s="3">
-        <v>2349300</v>
+        <v>2584700</v>
       </c>
       <c r="F57" s="3">
-        <v>1761900</v>
+        <v>2297100</v>
       </c>
       <c r="G57" s="3">
-        <v>2811000</v>
+        <v>1722700</v>
       </c>
       <c r="H57" s="3">
-        <v>2796400</v>
+        <v>2748500</v>
       </c>
       <c r="I57" s="3">
-        <v>2954000</v>
+        <v>2734200</v>
       </c>
       <c r="J57" s="3">
+        <v>2888400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2819500</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>8329600</v>
+        <v>7056400</v>
       </c>
       <c r="E58" s="3">
-        <v>8154200</v>
+        <v>8144500</v>
       </c>
       <c r="F58" s="3">
-        <v>7167500</v>
+        <v>7973000</v>
       </c>
       <c r="G58" s="3">
-        <v>6496100</v>
+        <v>7008200</v>
       </c>
       <c r="H58" s="3">
-        <v>7373200</v>
+        <v>6351700</v>
       </c>
       <c r="I58" s="3">
-        <v>7226300</v>
+        <v>7209300</v>
       </c>
       <c r="J58" s="3">
+        <v>7065700</v>
+      </c>
+      <c r="K58" s="3">
         <v>6437600</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>10108900</v>
+        <v>9161700</v>
       </c>
       <c r="E59" s="3">
-        <v>11761700</v>
+        <v>9884200</v>
       </c>
       <c r="F59" s="3">
-        <v>11510400</v>
+        <v>11500400</v>
       </c>
       <c r="G59" s="3">
-        <v>10133000</v>
+        <v>11254600</v>
       </c>
       <c r="H59" s="3">
-        <v>8022900</v>
+        <v>9907800</v>
       </c>
       <c r="I59" s="3">
-        <v>11188300</v>
+        <v>7844600</v>
       </c>
       <c r="J59" s="3">
+        <v>10939700</v>
+      </c>
+      <c r="K59" s="3">
         <v>6709900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>21081900</v>
+        <v>19220500</v>
       </c>
       <c r="E60" s="3">
-        <v>22265300</v>
+        <v>20613400</v>
       </c>
       <c r="F60" s="3">
-        <v>20439800</v>
+        <v>21770500</v>
       </c>
       <c r="G60" s="3">
-        <v>19440100</v>
+        <v>19985500</v>
       </c>
       <c r="H60" s="3">
-        <v>18192500</v>
+        <v>19008100</v>
       </c>
       <c r="I60" s="3">
-        <v>16935400</v>
+        <v>17788200</v>
       </c>
       <c r="J60" s="3">
+        <v>16559000</v>
+      </c>
+      <c r="K60" s="3">
         <v>15967100</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>41319500</v>
+        <v>46903800</v>
       </c>
       <c r="E61" s="3">
-        <v>40608100</v>
+        <v>40401300</v>
       </c>
       <c r="F61" s="3">
-        <v>46304100</v>
+        <v>39705700</v>
       </c>
       <c r="G61" s="3">
-        <v>50741700</v>
+        <v>45275200</v>
       </c>
       <c r="H61" s="3">
-        <v>41926200</v>
+        <v>49614100</v>
       </c>
       <c r="I61" s="3">
-        <v>41769100</v>
+        <v>40994500</v>
       </c>
       <c r="J61" s="3">
+        <v>40840900</v>
+      </c>
+      <c r="K61" s="3">
         <v>35463200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>35540500</v>
+        <v>34333200</v>
       </c>
       <c r="E62" s="3">
-        <v>31434400</v>
+        <v>34750700</v>
       </c>
       <c r="F62" s="3">
-        <v>29839500</v>
+        <v>30735900</v>
       </c>
       <c r="G62" s="3">
-        <v>27813200</v>
+        <v>29176400</v>
       </c>
       <c r="H62" s="3">
-        <v>33550300</v>
+        <v>27195100</v>
       </c>
       <c r="I62" s="3">
-        <v>36300400</v>
+        <v>32804700</v>
       </c>
       <c r="J62" s="3">
+        <v>35493700</v>
+      </c>
+      <c r="K62" s="3">
         <v>22967200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>99096700</v>
+        <v>101645000</v>
       </c>
       <c r="E66" s="3">
-        <v>95502000</v>
+        <v>96894600</v>
       </c>
       <c r="F66" s="3">
-        <v>97760600</v>
+        <v>93379700</v>
       </c>
       <c r="G66" s="3">
-        <v>99096300</v>
+        <v>95588100</v>
       </c>
       <c r="H66" s="3">
-        <v>94740900</v>
+        <v>96894100</v>
       </c>
       <c r="I66" s="3">
-        <v>86637600</v>
+        <v>92635500</v>
       </c>
       <c r="J66" s="3">
+        <v>84712400</v>
+      </c>
+      <c r="K66" s="3">
         <v>74877800</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>48033500</v>
+        <v>45336800</v>
       </c>
       <c r="E72" s="3">
-        <v>47856500</v>
+        <v>46966100</v>
       </c>
       <c r="F72" s="3">
-        <v>43368500</v>
+        <v>46793000</v>
       </c>
       <c r="G72" s="3">
-        <v>31773300</v>
+        <v>42404800</v>
       </c>
       <c r="H72" s="3">
-        <v>29489500</v>
+        <v>31067200</v>
       </c>
       <c r="I72" s="3">
-        <v>29307900</v>
+        <v>28834200</v>
       </c>
       <c r="J72" s="3">
+        <v>28656600</v>
+      </c>
+      <c r="K72" s="3">
         <v>32192200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>64513300</v>
+        <v>61374700</v>
       </c>
       <c r="E76" s="3">
-        <v>64551300</v>
+        <v>63079700</v>
       </c>
       <c r="F76" s="3">
-        <v>59971000</v>
+        <v>63116800</v>
       </c>
       <c r="G76" s="3">
-        <v>48241200</v>
+        <v>58638300</v>
       </c>
       <c r="H76" s="3">
-        <v>45233700</v>
+        <v>47169200</v>
       </c>
       <c r="I76" s="3">
-        <v>44899900</v>
+        <v>44228500</v>
       </c>
       <c r="J76" s="3">
+        <v>43902100</v>
+      </c>
+      <c r="K76" s="3">
         <v>47943300</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1168800</v>
+        <v>-1156800</v>
       </c>
       <c r="E81" s="3">
-        <v>6343700</v>
+        <v>1142900</v>
       </c>
       <c r="F81" s="3">
-        <v>11960200</v>
+        <v>6202800</v>
       </c>
       <c r="G81" s="3">
-        <v>2418200</v>
+        <v>11694400</v>
       </c>
       <c r="H81" s="3">
-        <v>54000</v>
+        <v>2364400</v>
       </c>
       <c r="I81" s="3">
-        <v>-2850000</v>
+        <v>52800</v>
       </c>
       <c r="J81" s="3">
+        <v>-2786600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3033400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>8796300</v>
+        <v>8821800</v>
       </c>
       <c r="E83" s="3">
-        <v>8064900</v>
+        <v>8600900</v>
       </c>
       <c r="F83" s="3">
-        <v>7507200</v>
+        <v>7885700</v>
       </c>
       <c r="G83" s="3">
-        <v>7086100</v>
+        <v>7340400</v>
       </c>
       <c r="H83" s="3">
-        <v>6653100</v>
+        <v>6928600</v>
       </c>
       <c r="I83" s="3">
-        <v>6297000</v>
+        <v>6505300</v>
       </c>
       <c r="J83" s="3">
+        <v>6157100</v>
+      </c>
+      <c r="K83" s="3">
         <v>6189700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>10061500</v>
+        <v>5897100</v>
       </c>
       <c r="E89" s="3">
-        <v>14896500</v>
+        <v>9838000</v>
       </c>
       <c r="F89" s="3">
-        <v>15270600</v>
+        <v>14565400</v>
       </c>
       <c r="G89" s="3">
-        <v>10841100</v>
+        <v>14931300</v>
       </c>
       <c r="H89" s="3">
-        <v>6195500</v>
+        <v>10600200</v>
       </c>
       <c r="I89" s="3">
-        <v>3525100</v>
+        <v>6057800</v>
       </c>
       <c r="J89" s="3">
+        <v>3446800</v>
+      </c>
+      <c r="K89" s="3">
         <v>3730300</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-11411900</v>
+        <v>-10794800</v>
       </c>
       <c r="E91" s="3">
-        <v>-10937900</v>
+        <v>-11031600</v>
       </c>
       <c r="F91" s="3">
-        <v>-12724000</v>
+        <v>-10585300</v>
       </c>
       <c r="G91" s="3">
-        <v>-13154500</v>
+        <v>-12363900</v>
       </c>
       <c r="H91" s="3">
-        <v>-12895300</v>
+        <v>-12801800</v>
       </c>
       <c r="I91" s="3">
-        <v>-10363100</v>
+        <v>-12548000</v>
       </c>
       <c r="J91" s="3">
+        <v>-10073200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9587700</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-11346000</v>
+        <v>-11452600</v>
       </c>
       <c r="E94" s="3">
-        <v>-8681300</v>
+        <v>-11093900</v>
       </c>
       <c r="F94" s="3">
-        <v>-8796600</v>
+        <v>-8488400</v>
       </c>
       <c r="G94" s="3">
-        <v>-13014300</v>
+        <v>-8601100</v>
       </c>
       <c r="H94" s="3">
-        <v>-13052900</v>
+        <v>-12725100</v>
       </c>
       <c r="I94" s="3">
-        <v>-10547300</v>
+        <v>-12762900</v>
       </c>
       <c r="J94" s="3">
+        <v>-10312900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10076100</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-1220600</v>
+        <v>-527500</v>
       </c>
       <c r="E96" s="3">
-        <v>-1894400</v>
+        <v>-1179500</v>
       </c>
       <c r="F96" s="3">
-        <v>-383700</v>
+        <v>-1837800</v>
       </c>
       <c r="G96" s="3">
-        <v>-183100</v>
+        <v>-360700</v>
       </c>
       <c r="H96" s="3">
-        <v>-52400</v>
+        <v>-164500</v>
       </c>
       <c r="I96" s="3">
-        <v>-49700</v>
+        <v>-36800</v>
       </c>
       <c r="J96" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-40200</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2933,36 +3210,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>671000</v>
+        <v>4665500</v>
       </c>
       <c r="E100" s="3">
-        <v>-6873700</v>
+        <v>656100</v>
       </c>
       <c r="F100" s="3">
-        <v>-4686000</v>
+        <v>-6721000</v>
       </c>
       <c r="G100" s="3">
-        <v>1786700</v>
+        <v>-4581800</v>
       </c>
       <c r="H100" s="3">
-        <v>7139800</v>
+        <v>1747000</v>
       </c>
       <c r="I100" s="3">
-        <v>7537900</v>
+        <v>6981200</v>
       </c>
       <c r="J100" s="3">
+        <v>7370400</v>
+      </c>
+      <c r="K100" s="3">
         <v>5707300</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -2975,46 +3258,52 @@
       <c r="F101" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G101" s="3">
-        <v>-5900</v>
+      <c r="G101" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="H101" s="3">
-        <v>-32800</v>
+        <v>-5800</v>
       </c>
       <c r="I101" s="3">
-        <v>-5500</v>
+        <v>-32000</v>
       </c>
       <c r="J101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K101" s="3">
         <v>6700</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-613500</v>
+        <v>-890000</v>
       </c>
       <c r="E102" s="3">
-        <v>-658500</v>
+        <v>-599800</v>
       </c>
       <c r="F102" s="3">
-        <v>1788100</v>
+        <v>-643900</v>
       </c>
       <c r="G102" s="3">
-        <v>-392400</v>
+        <v>1748400</v>
       </c>
       <c r="H102" s="3">
-        <v>249600</v>
+        <v>-383700</v>
       </c>
       <c r="I102" s="3">
-        <v>510300</v>
+        <v>244100</v>
       </c>
       <c r="J102" s="3">
+        <v>499000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-631900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/KEP_YR_FIN.xlsx
+++ b/Financials/Yearly/KEP_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53BD471-86A9-445D-8DC0-33A0B1C64599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="KEP" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>53352300</v>
+        <v>50927200</v>
       </c>
       <c r="E8" s="3">
-        <v>52637100</v>
+        <v>50244500</v>
       </c>
       <c r="F8" s="3">
-        <v>52967500</v>
+        <v>50559900</v>
       </c>
       <c r="G8" s="3">
-        <v>51882800</v>
+        <v>49524500</v>
       </c>
       <c r="H8" s="3">
-        <v>50577900</v>
+        <v>48278900</v>
       </c>
       <c r="I8" s="3">
-        <v>47553300</v>
+        <v>45391700</v>
       </c>
       <c r="J8" s="3">
-        <v>43490900</v>
+        <v>41514100</v>
       </c>
       <c r="K8" s="3">
         <v>39110100</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51298500</v>
+        <v>48966800</v>
       </c>
       <c r="E9" s="3">
-        <v>45921400</v>
+        <v>43834000</v>
       </c>
       <c r="F9" s="3">
-        <v>40167900</v>
+        <v>38342100</v>
       </c>
       <c r="G9" s="3">
-        <v>40086600</v>
+        <v>38264400</v>
       </c>
       <c r="H9" s="3">
-        <v>43847800</v>
+        <v>41854700</v>
       </c>
       <c r="I9" s="3">
-        <v>44566300</v>
+        <v>42540600</v>
       </c>
       <c r="J9" s="3">
-        <v>42676200</v>
+        <v>40736300</v>
       </c>
       <c r="K9" s="3">
         <v>38482000</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2053800</v>
+        <v>1960400</v>
       </c>
       <c r="E10" s="3">
-        <v>6715700</v>
+        <v>6410500</v>
       </c>
       <c r="F10" s="3">
-        <v>12799600</v>
+        <v>12217800</v>
       </c>
       <c r="G10" s="3">
-        <v>11796200</v>
+        <v>11260100</v>
       </c>
       <c r="H10" s="3">
-        <v>6730100</v>
+        <v>6424200</v>
       </c>
       <c r="I10" s="3">
-        <v>2987000</v>
+        <v>2851200</v>
       </c>
       <c r="J10" s="3">
-        <v>814800</v>
+        <v>777700</v>
       </c>
       <c r="K10" s="3">
         <v>628200</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>189600</v>
+        <v>181000</v>
       </c>
       <c r="E12" s="3">
-        <v>235200</v>
+        <v>224500</v>
       </c>
       <c r="F12" s="3">
-        <v>165500</v>
+        <v>158000</v>
       </c>
       <c r="G12" s="3">
-        <v>157100</v>
+        <v>149900</v>
       </c>
       <c r="H12" s="3">
-        <v>135700</v>
+        <v>129600</v>
       </c>
       <c r="I12" s="3">
-        <v>146200</v>
+        <v>139500</v>
       </c>
       <c r="J12" s="3">
-        <v>125200</v>
+        <v>119500</v>
       </c>
       <c r="K12" s="3">
         <v>121400</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>645500</v>
+        <v>616100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>81500</v>
+        <v>77800</v>
       </c>
       <c r="G14" s="3">
-        <v>-44300</v>
+        <v>-42300</v>
       </c>
       <c r="H14" s="3">
-        <v>-122500</v>
+        <v>-116900</v>
       </c>
       <c r="I14" s="3">
-        <v>-178600</v>
+        <v>-170500</v>
       </c>
       <c r="J14" s="3">
-        <v>1526700</v>
+        <v>1457300</v>
       </c>
       <c r="K14" s="3">
         <v>-38000</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>242200</v>
+        <v>231200</v>
       </c>
       <c r="E15" s="3">
-        <v>212900</v>
+        <v>203200</v>
       </c>
       <c r="F15" s="3">
-        <v>185900</v>
+        <v>177400</v>
       </c>
       <c r="G15" s="3">
-        <v>132000</v>
+        <v>126000</v>
       </c>
       <c r="H15" s="3">
-        <v>102200</v>
+        <v>97500</v>
       </c>
       <c r="I15" s="3">
-        <v>110100</v>
+        <v>105100</v>
       </c>
       <c r="J15" s="3">
-        <v>95000</v>
+        <v>90700</v>
       </c>
       <c r="K15" s="3">
         <v>91800</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>54186600</v>
+        <v>51723500</v>
       </c>
       <c r="E17" s="3">
-        <v>48273700</v>
+        <v>46079400</v>
       </c>
       <c r="F17" s="3">
-        <v>42493400</v>
+        <v>40561900</v>
       </c>
       <c r="G17" s="3">
-        <v>41859300</v>
+        <v>39956600</v>
       </c>
       <c r="H17" s="3">
-        <v>45230000</v>
+        <v>43174100</v>
       </c>
       <c r="I17" s="3">
-        <v>45875000</v>
+        <v>43789700</v>
       </c>
       <c r="J17" s="3">
-        <v>45558300</v>
+        <v>43487400</v>
       </c>
       <c r="K17" s="3">
         <v>40004500</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-834300</v>
+        <v>-796300</v>
       </c>
       <c r="E18" s="3">
-        <v>4363400</v>
+        <v>4165100</v>
       </c>
       <c r="F18" s="3">
-        <v>10474100</v>
+        <v>9998000</v>
       </c>
       <c r="G18" s="3">
-        <v>10023500</v>
+        <v>9567900</v>
       </c>
       <c r="H18" s="3">
-        <v>5347900</v>
+        <v>5104800</v>
       </c>
       <c r="I18" s="3">
-        <v>1678300</v>
+        <v>1602000</v>
       </c>
       <c r="J18" s="3">
-        <v>-2067300</v>
+        <v>-1973400</v>
       </c>
       <c r="K18" s="3">
         <v>-894400</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>717800</v>
+        <v>685200</v>
       </c>
       <c r="E20" s="3">
-        <v>391900</v>
+        <v>374100</v>
       </c>
       <c r="F20" s="3">
-        <v>320300</v>
+        <v>305700</v>
       </c>
       <c r="G20" s="3">
-        <v>8167400</v>
+        <v>7796100</v>
       </c>
       <c r="H20" s="3">
-        <v>443300</v>
+        <v>423200</v>
       </c>
       <c r="I20" s="3">
-        <v>68900</v>
+        <v>65700</v>
       </c>
       <c r="J20" s="3">
-        <v>3254700</v>
+        <v>3106800</v>
       </c>
       <c r="K20" s="3">
         <v>2846800</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>8705300</v>
+        <v>8409900</v>
       </c>
       <c r="E21" s="3">
-        <v>13356200</v>
+        <v>12846800</v>
       </c>
       <c r="F21" s="3">
-        <v>18680000</v>
+        <v>17920600</v>
       </c>
       <c r="G21" s="3">
-        <v>25531300</v>
+        <v>24454200</v>
       </c>
       <c r="H21" s="3">
-        <v>12719900</v>
+        <v>12220400</v>
       </c>
       <c r="I21" s="3">
-        <v>8252500</v>
+        <v>7951300</v>
       </c>
       <c r="J21" s="3">
-        <v>7344500</v>
+        <v>7080600</v>
       </c>
       <c r="K21" s="3">
         <v>8073200</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1644200</v>
+        <v>1569500</v>
       </c>
       <c r="E22" s="3">
-        <v>1574800</v>
+        <v>1503200</v>
       </c>
       <c r="F22" s="3">
-        <v>1542500</v>
+        <v>1472400</v>
       </c>
       <c r="G22" s="3">
-        <v>1773800</v>
+        <v>1693200</v>
       </c>
       <c r="H22" s="3">
-        <v>2069400</v>
+        <v>1975400</v>
       </c>
       <c r="I22" s="3">
-        <v>2096100</v>
+        <v>2000800</v>
       </c>
       <c r="J22" s="3">
-        <v>4763100</v>
+        <v>4546600</v>
       </c>
       <c r="K22" s="3">
         <v>4178200</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1760700</v>
+        <v>-1680700</v>
       </c>
       <c r="E23" s="3">
-        <v>3180500</v>
+        <v>3035900</v>
       </c>
       <c r="F23" s="3">
-        <v>9251900</v>
+        <v>8831300</v>
       </c>
       <c r="G23" s="3">
-        <v>16417100</v>
+        <v>15670900</v>
       </c>
       <c r="H23" s="3">
-        <v>3721800</v>
+        <v>3552600</v>
       </c>
       <c r="I23" s="3">
-        <v>-348900</v>
+        <v>-333000</v>
       </c>
       <c r="J23" s="3">
-        <v>-3575700</v>
+        <v>-3413200</v>
       </c>
       <c r="K23" s="3">
         <v>-2225800</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-727200</v>
+        <v>-694100</v>
       </c>
       <c r="E24" s="3">
-        <v>1912100</v>
+        <v>1825200</v>
       </c>
       <c r="F24" s="3">
-        <v>2961300</v>
+        <v>2826700</v>
       </c>
       <c r="G24" s="3">
-        <v>4610700</v>
+        <v>4401100</v>
       </c>
       <c r="H24" s="3">
-        <v>1258700</v>
+        <v>1201500</v>
       </c>
       <c r="I24" s="3">
-        <v>-502300</v>
+        <v>-479500</v>
       </c>
       <c r="J24" s="3">
-        <v>-867100</v>
+        <v>-827700</v>
       </c>
       <c r="K24" s="3">
         <v>737900</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1033600</v>
+        <v>-986600</v>
       </c>
       <c r="E26" s="3">
-        <v>1268400</v>
+        <v>1210800</v>
       </c>
       <c r="F26" s="3">
-        <v>6290500</v>
+        <v>6004600</v>
       </c>
       <c r="G26" s="3">
-        <v>11806400</v>
+        <v>11269800</v>
       </c>
       <c r="H26" s="3">
-        <v>2463100</v>
+        <v>2351100</v>
       </c>
       <c r="I26" s="3">
-        <v>153400</v>
+        <v>146400</v>
       </c>
       <c r="J26" s="3">
-        <v>-2708600</v>
+        <v>-2585500</v>
       </c>
       <c r="K26" s="3">
         <v>-2963700</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1156800</v>
+        <v>-1104200</v>
       </c>
       <c r="E27" s="3">
-        <v>1142900</v>
+        <v>1090900</v>
       </c>
       <c r="F27" s="3">
-        <v>6202800</v>
+        <v>5920800</v>
       </c>
       <c r="G27" s="3">
-        <v>11694400</v>
+        <v>11162900</v>
       </c>
       <c r="H27" s="3">
-        <v>2364400</v>
+        <v>2257000</v>
       </c>
       <c r="I27" s="3">
-        <v>52800</v>
+        <v>50400</v>
       </c>
       <c r="J27" s="3">
-        <v>-2786600</v>
+        <v>-2660000</v>
       </c>
       <c r="K27" s="3">
         <v>-3033400</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-717800</v>
+        <v>-685200</v>
       </c>
       <c r="E32" s="3">
-        <v>-391900</v>
+        <v>-374100</v>
       </c>
       <c r="F32" s="3">
-        <v>-320300</v>
+        <v>-305700</v>
       </c>
       <c r="G32" s="3">
-        <v>-8167400</v>
+        <v>-7796100</v>
       </c>
       <c r="H32" s="3">
-        <v>-443300</v>
+        <v>-423200</v>
       </c>
       <c r="I32" s="3">
-        <v>-68900</v>
+        <v>-65700</v>
       </c>
       <c r="J32" s="3">
-        <v>-3254700</v>
+        <v>-3106800</v>
       </c>
       <c r="K32" s="3">
         <v>-2846800</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-1156800</v>
+        <v>-1104200</v>
       </c>
       <c r="E33" s="3">
-        <v>1142900</v>
+        <v>1090900</v>
       </c>
       <c r="F33" s="3">
-        <v>6202800</v>
+        <v>5920800</v>
       </c>
       <c r="G33" s="3">
-        <v>11694400</v>
+        <v>11162900</v>
       </c>
       <c r="H33" s="3">
-        <v>2364400</v>
+        <v>2257000</v>
       </c>
       <c r="I33" s="3">
-        <v>52800</v>
+        <v>50400</v>
       </c>
       <c r="J33" s="3">
-        <v>-2786600</v>
+        <v>-2660000</v>
       </c>
       <c r="K33" s="3">
         <v>-3033400</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-1156800</v>
+        <v>-1104200</v>
       </c>
       <c r="E35" s="3">
-        <v>1142900</v>
+        <v>1090900</v>
       </c>
       <c r="F35" s="3">
-        <v>6202800</v>
+        <v>5920800</v>
       </c>
       <c r="G35" s="3">
-        <v>11694400</v>
+        <v>11162900</v>
       </c>
       <c r="H35" s="3">
-        <v>2364400</v>
+        <v>2257000</v>
       </c>
       <c r="I35" s="3">
-        <v>52800</v>
+        <v>50400</v>
       </c>
       <c r="J35" s="3">
-        <v>-2786600</v>
+        <v>-2660000</v>
       </c>
       <c r="K35" s="3">
         <v>-3033400</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1596,277 +1561,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1002500</v>
+        <v>956900</v>
       </c>
       <c r="E41" s="3">
-        <v>1344900</v>
+        <v>1283800</v>
       </c>
       <c r="F41" s="3">
-        <v>1624900</v>
+        <v>1551100</v>
       </c>
       <c r="G41" s="3">
-        <v>1482000</v>
+        <v>1414600</v>
       </c>
       <c r="H41" s="3">
-        <v>1315100</v>
+        <v>1255300</v>
       </c>
       <c r="I41" s="3">
-        <v>1949200</v>
+        <v>1860600</v>
       </c>
       <c r="J41" s="3">
-        <v>2774200</v>
+        <v>2648100</v>
       </c>
       <c r="K41" s="3">
         <v>645200</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2106900</v>
+        <v>2011100</v>
       </c>
       <c r="E42" s="3">
-        <v>2208200</v>
+        <v>2107900</v>
       </c>
       <c r="F42" s="3">
-        <v>3411600</v>
+        <v>3256500</v>
       </c>
       <c r="G42" s="3">
-        <v>6542500</v>
+        <v>6245100</v>
       </c>
       <c r="H42" s="3">
-        <v>354000</v>
+        <v>337900</v>
       </c>
       <c r="I42" s="3">
-        <v>353400</v>
+        <v>337400</v>
       </c>
       <c r="J42" s="3">
-        <v>1656300</v>
+        <v>1581000</v>
       </c>
       <c r="K42" s="3">
         <v>1297400</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6893100</v>
+        <v>6579700</v>
       </c>
       <c r="E43" s="3">
-        <v>7280100</v>
+        <v>6949200</v>
       </c>
       <c r="F43" s="3">
-        <v>6871100</v>
+        <v>6558800</v>
       </c>
       <c r="G43" s="3">
-        <v>6584700</v>
+        <v>6285400</v>
       </c>
       <c r="H43" s="3">
-        <v>6839700</v>
+        <v>6528800</v>
       </c>
       <c r="I43" s="3">
-        <v>6723100</v>
+        <v>6417500</v>
       </c>
       <c r="J43" s="3">
-        <v>6741200</v>
+        <v>6434800</v>
       </c>
       <c r="K43" s="3">
         <v>6579000</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>6325700</v>
+        <v>6038100</v>
       </c>
       <c r="E44" s="3">
-        <v>5281800</v>
+        <v>5041800</v>
       </c>
       <c r="F44" s="3">
-        <v>4821900</v>
+        <v>4602700</v>
       </c>
       <c r="G44" s="3">
-        <v>4352800</v>
+        <v>4155000</v>
       </c>
       <c r="H44" s="3">
-        <v>3993000</v>
+        <v>3811500</v>
       </c>
       <c r="I44" s="3">
-        <v>3766000</v>
+        <v>3594900</v>
       </c>
       <c r="J44" s="3">
-        <v>3027800</v>
+        <v>2890200</v>
       </c>
       <c r="K44" s="3">
         <v>3466600</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1047500</v>
+        <v>999900</v>
       </c>
       <c r="E45" s="3">
-        <v>729500</v>
+        <v>696400</v>
       </c>
       <c r="F45" s="3">
-        <v>614000</v>
+        <v>586100</v>
       </c>
       <c r="G45" s="3">
-        <v>420300</v>
+        <v>401200</v>
       </c>
       <c r="H45" s="3">
-        <v>2299700</v>
+        <v>2195200</v>
       </c>
       <c r="I45" s="3">
-        <v>645000</v>
+        <v>615700</v>
       </c>
       <c r="J45" s="3">
-        <v>956800</v>
+        <v>913300</v>
       </c>
       <c r="K45" s="3">
         <v>402700</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>17375700</v>
+        <v>16585900</v>
       </c>
       <c r="E46" s="3">
-        <v>16844700</v>
+        <v>16079000</v>
       </c>
       <c r="F46" s="3">
-        <v>17343500</v>
+        <v>16555200</v>
       </c>
       <c r="G46" s="3">
-        <v>19382300</v>
+        <v>18501300</v>
       </c>
       <c r="H46" s="3">
-        <v>14801500</v>
+        <v>14128700</v>
       </c>
       <c r="I46" s="3">
-        <v>13436800</v>
+        <v>12826000</v>
       </c>
       <c r="J46" s="3">
-        <v>12261500</v>
+        <v>11704100</v>
       </c>
       <c r="K46" s="3">
         <v>12390800</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>7884500</v>
+        <v>7526100</v>
       </c>
       <c r="E47" s="3">
-        <v>7539100</v>
+        <v>7196400</v>
       </c>
       <c r="F47" s="3">
-        <v>8862900</v>
+        <v>8460000</v>
       </c>
       <c r="G47" s="3">
-        <v>8789000</v>
+        <v>8389500</v>
       </c>
       <c r="H47" s="3">
-        <v>7842900</v>
+        <v>7486400</v>
       </c>
       <c r="I47" s="3">
-        <v>7455100</v>
+        <v>7116300</v>
       </c>
       <c r="J47" s="3">
-        <v>9509100</v>
+        <v>9076900</v>
       </c>
       <c r="K47" s="3">
         <v>7172000</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>134554000</v>
+        <v>128438000</v>
       </c>
       <c r="E48" s="3">
-        <v>133027000</v>
+        <v>126980000</v>
       </c>
       <c r="F48" s="3">
-        <v>128565000</v>
+        <v>122721000</v>
       </c>
       <c r="G48" s="3">
-        <v>124636000</v>
+        <v>118970000</v>
       </c>
       <c r="H48" s="3">
-        <v>119794000</v>
+        <v>114349000</v>
       </c>
       <c r="I48" s="3">
-        <v>114555000</v>
+        <v>109348000</v>
       </c>
       <c r="J48" s="3">
-        <v>216421000</v>
+        <v>206584000</v>
       </c>
       <c r="K48" s="3">
         <v>101612000</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1081100</v>
+        <v>1032000</v>
       </c>
       <c r="E49" s="3">
-        <v>1046900</v>
+        <v>999400</v>
       </c>
       <c r="F49" s="3">
-        <v>865400</v>
+        <v>826100</v>
       </c>
       <c r="G49" s="3">
-        <v>755400</v>
+        <v>721100</v>
       </c>
       <c r="H49" s="3">
-        <v>724800</v>
+        <v>691900</v>
       </c>
       <c r="I49" s="3">
-        <v>715700</v>
+        <v>683100</v>
       </c>
       <c r="J49" s="3">
-        <v>1573100</v>
+        <v>1501600</v>
       </c>
       <c r="K49" s="3">
         <v>784400</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>2123500</v>
+        <v>2027000</v>
       </c>
       <c r="E52" s="3">
-        <v>1516400</v>
+        <v>1447500</v>
       </c>
       <c r="F52" s="3">
-        <v>859700</v>
+        <v>820600</v>
       </c>
       <c r="G52" s="3">
-        <v>664300</v>
+        <v>634100</v>
       </c>
       <c r="H52" s="3">
-        <v>900000</v>
+        <v>859100</v>
       </c>
       <c r="I52" s="3">
-        <v>701700</v>
+        <v>669800</v>
       </c>
       <c r="J52" s="3">
-        <v>714400</v>
+        <v>681900</v>
       </c>
       <c r="K52" s="3">
         <v>862000</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>163019000</v>
+        <v>155609000</v>
       </c>
       <c r="E54" s="3">
-        <v>159974000</v>
+        <v>152703000</v>
       </c>
       <c r="F54" s="3">
-        <v>156497000</v>
+        <v>149383000</v>
       </c>
       <c r="G54" s="3">
-        <v>154227000</v>
+        <v>147216000</v>
       </c>
       <c r="H54" s="3">
-        <v>144063000</v>
+        <v>137515000</v>
       </c>
       <c r="I54" s="3">
-        <v>136864000</v>
+        <v>130643000</v>
       </c>
       <c r="J54" s="3">
-        <v>128615000</v>
+        <v>122768000</v>
       </c>
       <c r="K54" s="3">
         <v>122821000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3002400</v>
+        <v>2865900</v>
       </c>
       <c r="E57" s="3">
-        <v>2584700</v>
+        <v>2467200</v>
       </c>
       <c r="F57" s="3">
-        <v>2297100</v>
+        <v>2192700</v>
       </c>
       <c r="G57" s="3">
-        <v>1722700</v>
+        <v>1644400</v>
       </c>
       <c r="H57" s="3">
-        <v>2748500</v>
+        <v>2623600</v>
       </c>
       <c r="I57" s="3">
-        <v>2734200</v>
+        <v>2609900</v>
       </c>
       <c r="J57" s="3">
-        <v>2888400</v>
+        <v>2757100</v>
       </c>
       <c r="K57" s="3">
         <v>2819500</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>7056400</v>
+        <v>6735700</v>
       </c>
       <c r="E58" s="3">
-        <v>8144500</v>
+        <v>7774300</v>
       </c>
       <c r="F58" s="3">
-        <v>7973000</v>
+        <v>7610600</v>
       </c>
       <c r="G58" s="3">
-        <v>7008200</v>
+        <v>6689600</v>
       </c>
       <c r="H58" s="3">
-        <v>6351700</v>
+        <v>6063000</v>
       </c>
       <c r="I58" s="3">
-        <v>7209300</v>
+        <v>6881600</v>
       </c>
       <c r="J58" s="3">
-        <v>7065700</v>
+        <v>6744600</v>
       </c>
       <c r="K58" s="3">
         <v>6437600</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>9161700</v>
+        <v>8745300</v>
       </c>
       <c r="E59" s="3">
-        <v>9884200</v>
+        <v>9434900</v>
       </c>
       <c r="F59" s="3">
-        <v>11500400</v>
+        <v>10977600</v>
       </c>
       <c r="G59" s="3">
-        <v>11254600</v>
+        <v>10743100</v>
       </c>
       <c r="H59" s="3">
-        <v>9907800</v>
+        <v>9457500</v>
       </c>
       <c r="I59" s="3">
-        <v>7844600</v>
+        <v>7488000</v>
       </c>
       <c r="J59" s="3">
-        <v>10939700</v>
+        <v>10442500</v>
       </c>
       <c r="K59" s="3">
         <v>6709900</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>19220500</v>
+        <v>18346900</v>
       </c>
       <c r="E60" s="3">
-        <v>20613400</v>
+        <v>19676400</v>
       </c>
       <c r="F60" s="3">
-        <v>21770500</v>
+        <v>20780900</v>
       </c>
       <c r="G60" s="3">
-        <v>19985500</v>
+        <v>19077100</v>
       </c>
       <c r="H60" s="3">
-        <v>19008100</v>
+        <v>18144100</v>
       </c>
       <c r="I60" s="3">
-        <v>17788200</v>
+        <v>16979600</v>
       </c>
       <c r="J60" s="3">
-        <v>16559000</v>
+        <v>15806300</v>
       </c>
       <c r="K60" s="3">
         <v>15967100</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>46903800</v>
+        <v>44771800</v>
       </c>
       <c r="E61" s="3">
-        <v>40401300</v>
+        <v>38564900</v>
       </c>
       <c r="F61" s="3">
-        <v>39705700</v>
+        <v>37900900</v>
       </c>
       <c r="G61" s="3">
-        <v>45275200</v>
+        <v>43217200</v>
       </c>
       <c r="H61" s="3">
-        <v>49614100</v>
+        <v>47358900</v>
       </c>
       <c r="I61" s="3">
-        <v>40994500</v>
+        <v>39131100</v>
       </c>
       <c r="J61" s="3">
-        <v>40840900</v>
+        <v>38984500</v>
       </c>
       <c r="K61" s="3">
         <v>35463200</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>34333200</v>
+        <v>32772600</v>
       </c>
       <c r="E62" s="3">
-        <v>34750700</v>
+        <v>33171100</v>
       </c>
       <c r="F62" s="3">
-        <v>30735900</v>
+        <v>29338800</v>
       </c>
       <c r="G62" s="3">
-        <v>29176400</v>
+        <v>27850200</v>
       </c>
       <c r="H62" s="3">
-        <v>27195100</v>
+        <v>25959000</v>
       </c>
       <c r="I62" s="3">
-        <v>32804700</v>
+        <v>31313600</v>
       </c>
       <c r="J62" s="3">
-        <v>35493700</v>
+        <v>33880400</v>
       </c>
       <c r="K62" s="3">
         <v>22967200</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>101645000</v>
+        <v>97024300</v>
       </c>
       <c r="E66" s="3">
-        <v>96894600</v>
+        <v>92490300</v>
       </c>
       <c r="F66" s="3">
-        <v>93379700</v>
+        <v>89135200</v>
       </c>
       <c r="G66" s="3">
-        <v>95588100</v>
+        <v>91243200</v>
       </c>
       <c r="H66" s="3">
-        <v>96894100</v>
+        <v>92489800</v>
       </c>
       <c r="I66" s="3">
-        <v>92635500</v>
+        <v>88424800</v>
       </c>
       <c r="J66" s="3">
-        <v>84712400</v>
+        <v>80861800</v>
       </c>
       <c r="K66" s="3">
         <v>74877800</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>45336800</v>
+        <v>43276100</v>
       </c>
       <c r="E72" s="3">
-        <v>46966100</v>
+        <v>44831300</v>
       </c>
       <c r="F72" s="3">
-        <v>46793000</v>
+        <v>44666100</v>
       </c>
       <c r="G72" s="3">
-        <v>42404800</v>
+        <v>40477300</v>
       </c>
       <c r="H72" s="3">
-        <v>31067200</v>
+        <v>29655100</v>
       </c>
       <c r="I72" s="3">
-        <v>28834200</v>
+        <v>27523500</v>
       </c>
       <c r="J72" s="3">
-        <v>28656600</v>
+        <v>27354000</v>
       </c>
       <c r="K72" s="3">
         <v>32192200</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>61374700</v>
+        <v>58584900</v>
       </c>
       <c r="E76" s="3">
-        <v>63079700</v>
+        <v>60212400</v>
       </c>
       <c r="F76" s="3">
-        <v>63116800</v>
+        <v>60247900</v>
       </c>
       <c r="G76" s="3">
-        <v>58638300</v>
+        <v>55973000</v>
       </c>
       <c r="H76" s="3">
-        <v>47169200</v>
+        <v>45025100</v>
       </c>
       <c r="I76" s="3">
-        <v>44228500</v>
+        <v>42218100</v>
       </c>
       <c r="J76" s="3">
-        <v>43902100</v>
+        <v>41906600</v>
       </c>
       <c r="K76" s="3">
         <v>47943300</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-1156800</v>
+        <v>-1104200</v>
       </c>
       <c r="E81" s="3">
-        <v>1142900</v>
+        <v>1090900</v>
       </c>
       <c r="F81" s="3">
-        <v>6202800</v>
+        <v>5920800</v>
       </c>
       <c r="G81" s="3">
-        <v>11694400</v>
+        <v>11162900</v>
       </c>
       <c r="H81" s="3">
-        <v>2364400</v>
+        <v>2257000</v>
       </c>
       <c r="I81" s="3">
-        <v>52800</v>
+        <v>50400</v>
       </c>
       <c r="J81" s="3">
-        <v>-2786600</v>
+        <v>-2660000</v>
       </c>
       <c r="K81" s="3">
         <v>-3033400</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>8821800</v>
+        <v>8420800</v>
       </c>
       <c r="E83" s="3">
-        <v>8600900</v>
+        <v>8209900</v>
       </c>
       <c r="F83" s="3">
-        <v>7885700</v>
+        <v>7527200</v>
       </c>
       <c r="G83" s="3">
-        <v>7340400</v>
+        <v>7006800</v>
       </c>
       <c r="H83" s="3">
-        <v>6928600</v>
+        <v>6613700</v>
       </c>
       <c r="I83" s="3">
-        <v>6505300</v>
+        <v>6209600</v>
       </c>
       <c r="J83" s="3">
-        <v>6157100</v>
+        <v>5877200</v>
       </c>
       <c r="K83" s="3">
         <v>6189700</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>5897100</v>
+        <v>5629000</v>
       </c>
       <c r="E89" s="3">
-        <v>9838000</v>
+        <v>9390800</v>
       </c>
       <c r="F89" s="3">
-        <v>14565400</v>
+        <v>13903400</v>
       </c>
       <c r="G89" s="3">
-        <v>14931300</v>
+        <v>14252600</v>
       </c>
       <c r="H89" s="3">
-        <v>10600200</v>
+        <v>10118400</v>
       </c>
       <c r="I89" s="3">
-        <v>6057800</v>
+        <v>5782500</v>
       </c>
       <c r="J89" s="3">
-        <v>3446800</v>
+        <v>3290100</v>
       </c>
       <c r="K89" s="3">
         <v>3730300</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-10794800</v>
+        <v>-10304200</v>
       </c>
       <c r="E91" s="3">
-        <v>-11031600</v>
+        <v>-10530200</v>
       </c>
       <c r="F91" s="3">
-        <v>-10585300</v>
+        <v>-10104200</v>
       </c>
       <c r="G91" s="3">
-        <v>-12363900</v>
+        <v>-11801900</v>
       </c>
       <c r="H91" s="3">
-        <v>-12801800</v>
+        <v>-12219900</v>
       </c>
       <c r="I91" s="3">
-        <v>-12548000</v>
+        <v>-11977600</v>
       </c>
       <c r="J91" s="3">
-        <v>-10073200</v>
+        <v>-9615300</v>
       </c>
       <c r="K91" s="3">
         <v>-9587700</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-11452600</v>
+        <v>-10932000</v>
       </c>
       <c r="E94" s="3">
-        <v>-11093900</v>
+        <v>-10589600</v>
       </c>
       <c r="F94" s="3">
-        <v>-8488400</v>
+        <v>-8102500</v>
       </c>
       <c r="G94" s="3">
-        <v>-8601100</v>
+        <v>-8210100</v>
       </c>
       <c r="H94" s="3">
-        <v>-12725100</v>
+        <v>-12146700</v>
       </c>
       <c r="I94" s="3">
-        <v>-12762900</v>
+        <v>-12182700</v>
       </c>
       <c r="J94" s="3">
-        <v>-10312900</v>
+        <v>-9844100</v>
       </c>
       <c r="K94" s="3">
         <v>-10076100</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-527500</v>
+        <v>-518300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1179500</v>
+        <v>-1139200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1837800</v>
+        <v>-1768100</v>
       </c>
       <c r="G96" s="3">
-        <v>-360700</v>
+        <v>-358100</v>
       </c>
       <c r="H96" s="3">
-        <v>-164500</v>
+        <v>-170900</v>
       </c>
       <c r="I96" s="3">
-        <v>-36800</v>
+        <v>-48900</v>
       </c>
       <c r="J96" s="3">
-        <v>-48600</v>
+        <v>-46400</v>
       </c>
       <c r="K96" s="3">
         <v>-40200</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3215,37 +3180,37 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>4665500</v>
+        <v>4453400</v>
       </c>
       <c r="E100" s="3">
-        <v>656100</v>
+        <v>626300</v>
       </c>
       <c r="F100" s="3">
-        <v>-6721000</v>
+        <v>-6415500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4581800</v>
+        <v>-4373600</v>
       </c>
       <c r="H100" s="3">
-        <v>1747000</v>
+        <v>1667500</v>
       </c>
       <c r="I100" s="3">
-        <v>6981200</v>
+        <v>6663800</v>
       </c>
       <c r="J100" s="3">
-        <v>7370400</v>
+        <v>7035400</v>
       </c>
       <c r="K100" s="3">
         <v>5707300</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3262,43 +3227,43 @@
         <v>90</v>
       </c>
       <c r="H101" s="3">
-        <v>-5800</v>
+        <v>-5500</v>
       </c>
       <c r="I101" s="3">
-        <v>-32000</v>
+        <v>-30600</v>
       </c>
       <c r="J101" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="K101" s="3">
         <v>6700</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-890000</v>
+        <v>-849600</v>
       </c>
       <c r="E102" s="3">
-        <v>-599800</v>
+        <v>-572600</v>
       </c>
       <c r="F102" s="3">
-        <v>-643900</v>
+        <v>-614600</v>
       </c>
       <c r="G102" s="3">
-        <v>1748400</v>
+        <v>1668900</v>
       </c>
       <c r="H102" s="3">
-        <v>-383700</v>
+        <v>-366300</v>
       </c>
       <c r="I102" s="3">
-        <v>244100</v>
+        <v>233000</v>
       </c>
       <c r="J102" s="3">
-        <v>499000</v>
+        <v>476300</v>
       </c>
       <c r="K102" s="3">
         <v>-631900</v>
